--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_312__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_312__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,13 +6118,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>6.275376319885254</c:v>
+                  <c:v>6.275370597839355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.17414093017578</c:v>
+                  <c:v>85.17413330078125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.47710418701172</c:v>
+                  <c:v>36.47709274291992</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.72238689661026</c:v>
@@ -6139,22 +6139,22 @@
                   <c:v>93.3944091796875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.95711135864258</c:v>
+                  <c:v>51.95712280273438</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.9884446263313293</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.03343963623047</c:v>
+                  <c:v>49.03343200683594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.927650451660156</c:v>
+                  <c:v>4.927636623382568</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>92.69647216796875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.54757881164551</c:v>
+                  <c:v>27.54757308959961</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>93.29689025878906</c:v>
@@ -6163,52 +6163,52 @@
                   <c:v>0.72238689661026</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.06226348876953</c:v>
+                  <c:v>25.062255859375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8657410740852356</c:v>
+                  <c:v>0.8657422065734863</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.16157531738281</c:v>
+                  <c:v>93.16156768798828</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.36346054077148</c:v>
+                  <c:v>58.36344146728516</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2.447918653488159</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90.92945098876953</c:v>
+                  <c:v>90.92943572998047</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>93.43790435791016</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>93.1343994140625</c:v>
+                  <c:v>93.13439178466797</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>92.63983154296875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.873828172683716</c:v>
+                  <c:v>2.873829126358032</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>92.29936218261719</c:v>
+                  <c:v>92.29934692382812</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>84.84608459472656</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>75.87712097167969</c:v>
+                  <c:v>75.87711334228516</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.275332689285278</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.887943267822266</c:v>
+                  <c:v>5.887965202331543</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.126999855041504</c:v>
+                  <c:v>7.126978397369385</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.72238689661026</c:v>
@@ -6238,16 +6238,16 @@
                   <c:v>90.77914428710938</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36.63725280761719</c:v>
+                  <c:v>36.63724899291992</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>85.44440460205078</c:v>
+                  <c:v>85.44439697265625</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.72238689661026</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>72.78899383544922</c:v>
+                  <c:v>72.78898620605469</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.72238689661026</c:v>
@@ -6262,10 +6262,10 @@
                   <c:v>88.34439086914062</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.50808048248291</c:v>
+                  <c:v>4.508083820343018</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>92.15126800537109</c:v>
+                  <c:v>92.15128326416016</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>8.732129096984863</c:v>
@@ -6283,7 +6283,7 @@
                   <c:v>59.90790176391602</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43.71479415893555</c:v>
+                  <c:v>43.71479034423828</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>83.47042083740234</c:v>
@@ -6295,13 +6295,13 @@
                   <c:v>0.72238689661026</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>84.56175994873047</c:v>
+                  <c:v>84.56173706054688</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.72238689661026</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.10793137550354</c:v>
+                  <c:v>1.107932567596436</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>90.49442291259766</c:v>
@@ -6310,7 +6310,7 @@
                   <c:v>0.9038190245628357</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>92.43380737304688</c:v>
+                  <c:v>92.43379974365234</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.72238689661026</c:v>
@@ -6322,7 +6322,7 @@
                   <c:v>0.72238689661026</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.86689281463623</c:v>
+                  <c:v>14.86687660217285</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>87.06954193115234</c:v>
@@ -6331,16 +6331,16 @@
                   <c:v>93.41180419921875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.33162689208984</c:v>
+                  <c:v>84.33161926269531</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>93.44417572021484</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11.12087249755859</c:v>
+                  <c:v>11.1208667755127</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>89.6929931640625</c:v>
+                  <c:v>89.69298553466797</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.72238689661026</c:v>
@@ -6349,16 +6349,16 @@
                   <c:v>92.94596099853516</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>92.82267761230469</c:v>
+                  <c:v>92.82266998291016</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>84.77651977539062</c:v>
+                  <c:v>84.77651214599609</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.38610076904297</c:v>
+                  <c:v>93.38609313964844</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.44480514526367</c:v>
+                  <c:v>53.4448127746582</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.72238689661026</c:v>
@@ -6370,10 +6370,10 @@
                   <c:v>82.56108856201172</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>93.36161041259766</c:v>
+                  <c:v>93.36159515380859</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>88.23091125488281</c:v>
+                  <c:v>88.23091888427734</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.72238689661026</c:v>
@@ -6385,25 +6385,25 @@
                   <c:v>2.718809366226196</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90.57921600341797</c:v>
+                  <c:v>90.5792236328125</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>82.67816162109375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.177082300186157</c:v>
+                  <c:v>3.177081346511841</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>34.08322906494141</c:v>
+                  <c:v>34.08321762084961</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>92.97023773193359</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>80.93753051757812</c:v>
+                  <c:v>80.93754577636719</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>26.96854972839355</c:v>
+                  <c:v>26.96855163574219</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>90.45942687988281</c:v>
@@ -6412,7 +6412,7 @@
                   <c:v>93.43373870849609</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.345940589904785</c:v>
+                  <c:v>3.345940113067627</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>90.17120361328125</c:v>
@@ -6421,10 +6421,10 @@
                   <c:v>0.72238689661026</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>13.68858337402344</c:v>
+                  <c:v>13.68856334686279</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>83.36177062988281</c:v>
+                  <c:v>83.36176300048828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.275376319885254</v>
+        <v>6.275370597839355</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>87.86960000000001</v>
       </c>
       <c r="F3">
-        <v>85.17414093017578</v>
+        <v>85.17413330078125</v>
       </c>
       <c r="G3">
         <v>152</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.47710418701172</v>
+        <v>36.47709274291992</v>
       </c>
       <c r="G4">
         <v>152</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>51.95711135864258</v>
+        <v>51.95712280273438</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>49.03343963623047</v>
+        <v>49.03343200683594</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>4.927650451660156</v>
+        <v>4.927636623382568</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.54757881164551</v>
+        <v>27.54757308959961</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>25.06226348876953</v>
+        <v>25.062255859375</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8657410740852356</v>
+        <v>0.8657422065734863</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>93.16157531738281</v>
+        <v>93.16156768798828</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>58.36346054077148</v>
+        <v>58.36344146728516</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>90.92945098876953</v>
+        <v>90.92943572998047</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>93.1343994140625</v>
+        <v>93.13439178466797</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.873828172683716</v>
+        <v>2.873829126358032</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>92.29936218261719</v>
+        <v>92.29934692382812</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>75.87712097167969</v>
+        <v>75.87711334228516</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>5.887943267822266</v>
+        <v>5.887965202331543</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>7.126999855041504</v>
+        <v>7.126978397369385</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>36.63725280761719</v>
+        <v>36.63724899291992</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>87.6232</v>
       </c>
       <c r="F43">
-        <v>85.44440460205078</v>
+        <v>85.44439697265625</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>72.78899383544922</v>
+        <v>72.78898620605469</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>4.50808048248291</v>
+        <v>4.508083820343018</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>94.2983</v>
       </c>
       <c r="F51">
-        <v>92.15126800537109</v>
+        <v>92.15128326416016</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>43.71479415893555</v>
+        <v>43.71479034423828</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>84.56175994873047</v>
+        <v>84.56173706054688</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.10793137550354</v>
+        <v>1.107932567596436</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>93.4378</v>
       </c>
       <c r="F66">
-        <v>92.43380737304688</v>
+        <v>92.43379974365234</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>14.86689281463623</v>
+        <v>14.86687660217285</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>84.33162689208984</v>
+        <v>84.33161926269531</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>11.12087249755859</v>
+        <v>11.1208667755127</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>89.6929931640625</v>
+        <v>89.69298553466797</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>94.49079999999999</v>
       </c>
       <c r="F79">
-        <v>92.82267761230469</v>
+        <v>92.82266998291016</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>84.77651977539062</v>
+        <v>84.77651214599609</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>93.38610076904297</v>
+        <v>93.38609313964844</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>53.44480514526367</v>
+        <v>53.4448127746582</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>95.37090000000001</v>
       </c>
       <c r="F86">
-        <v>93.36161041259766</v>
+        <v>93.36159515380859</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>91.53700000000001</v>
       </c>
       <c r="F87">
-        <v>88.23091125488281</v>
+        <v>88.23091888427734</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>90.57921600341797</v>
+        <v>90.5792236328125</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>3.177082300186157</v>
+        <v>3.177081346511841</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>34.08322906494141</v>
+        <v>34.08321762084961</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>80.93753051757812</v>
+        <v>80.93754577636719</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>26.96854972839355</v>
+        <v>26.96855163574219</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>3.345940589904785</v>
+        <v>3.345940113067627</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>13.68858337402344</v>
+        <v>13.68856334686279</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>76.82470000000001</v>
       </c>
       <c r="F104">
-        <v>83.36177062988281</v>
+        <v>83.36176300048828</v>
       </c>
     </row>
     <row r="105" spans="1:6">
